--- a/webアプリ作成/webアプリの作成_メモ.xlsx
+++ b/webアプリ作成/webアプリの作成_メモ.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t xml:space="preserve">▼To Do</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">　</t>
   </si>
   <si>
-    <t xml:space="preserve">オンラインショッピングサイトみたいなwebアプリを作成する。</t>
+    <t xml:space="preserve">オンラインショッピングサイト（フリマアプリ的な）みたいなwebアプリを作成する。</t>
   </si>
   <si>
     <t xml:space="preserve">アプリ名：PreMarche</t>
@@ -40,6 +40,39 @@
     <t xml:space="preserve">◆webアプリの作成手順を調べる</t>
   </si>
   <si>
+    <t xml:space="preserve">・作成するアプリの方向性を決定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オンラインショッピングサイト（フリマアプリ）的なwebアプリを作成する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPAで実装する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・目的のアプリを実現のために必要な言語の選定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・使用言語</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クライアント：React（Facebookが開発したJavascriptのライブラリの一つ。html、Javascriptが一体になったような感じ？）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サーバ：Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・環境構築</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・アプリの機能を設計</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・プログラムの作成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">・テスト実施</t>
+  </si>
+  <si>
     <t xml:space="preserve">◆基本設計</t>
   </si>
   <si>
@@ -47,15 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">・開発環境を一致させる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">・使用言語</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クライアント：React（Facebookが開発したJavascriptのライブラリの一つ。html、Javascriptが一体になったような感じ？）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サーバ：Java</t>
   </si>
   <si>
     <t xml:space="preserve">・統合開発環境</t>
@@ -230,10 +254,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:H53"/>
+  <dimension ref="B2:H65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA20" activeCellId="0" sqref="AA20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z32" activeCellId="0" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -286,157 +310,227 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="1"/>
+      <c r="D11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="1"/>
+      <c r="E13" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1"/>
+      <c r="E14" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="1"/>
+      <c r="D16" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1" t="s">
-        <v>6</v>
+      <c r="C18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="C21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="1" t="s">
-        <v>9</v>
+      <c r="C24" s="1"/>
+      <c r="D24" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="1" t="s">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="1"/>
+      <c r="D26" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="1"/>
+      <c r="D28" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="1" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="1" t="s">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="2"/>
-      <c r="F30" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F31" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F35" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F41" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="2"/>
+      <c r="F42" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="1" t="s">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="1" t="s">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H49" s="1" t="s">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H50" s="1" t="s">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D52" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G52" s="1" t="s">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H53" s="1" t="s">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G55" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H56" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H57" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G59" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H60" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H61" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H62" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G64" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H65" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
